--- a/data/survey_data/raw_data/sat_data1.xlsx
+++ b/data/survey_data/raw_data/sat_data1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="273">
   <si>
     <t>Timestamp</t>
   </si>
@@ -599,6 +599,240 @@
   </si>
   <si>
     <t>To empathize with your &lt;childhood self&gt;, we have to first get closer emotionally with our &lt;childhood self&gt;. Let's do exercise 1 and 2 (to recall childhood memories of intimacy with your &lt;childhood self&gt;).</t>
+  </si>
+  <si>
+    <t>How are you feeling now?</t>
+  </si>
+  <si>
+    <t>May I ask if you think the predicted emotions is correct?</t>
+  </si>
+  <si>
+    <t>Would you like to practice Exercise 13 by any chance? This exercise may help you overcome your negative emotions.</t>
+  </si>
+  <si>
+    <t>Good to know this! Do you feel like protecting your childhood self or making your childhood self grow up and face hardships by themselves?</t>
+  </si>
+  <si>
+    <t>Well done! It is likely that you have shown tender compassion, which is the first phase of compassion, where you feel sympathy towards the victim. You feel for the victim, hoping to do something that can help alleviate the suffering of the victim immediately.</t>
+  </si>
+  <si>
+    <t>Thank you for your cooperation. You have shown foresighted compassion to your childhood self, which helps you think about how to help the victim long-term!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good job so far. let's bring compassion to the next level if you agree. May I ask you to take SAT module to help you develop foresighted compassion? </t>
+  </si>
+  <si>
+    <t>Cool! Are you ready to use your compassion energy to do meaningful things in the real world? At the MAIN NODE, please go to Awareness, Understanding, Commitments (AUC) to start making an impact in the real world!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please note that the main goal of this chatbot is to develop compassion. </t>
+  </si>
+  <si>
+    <t>As you may know, there are 2 types of compassion. Tender compassion is a more commonly seen compassion, where the people generate immediate sympathetic feelings towards some unfortunate events. While foresighted compassion goes beyond initial sympathetic feeling, and wanted to do more sustainable and systematically to alleviate the situation.</t>
+  </si>
+  <si>
+    <t>That's ok. We created this chatbot to develop compassion for you!</t>
+  </si>
+  <si>
+    <t>Do you think that you form a closer connection with the child?</t>
+  </si>
+  <si>
+    <t>Good job, you have accomplished the first goal! Would you like to continue to take the relationship with the child self to the next level?</t>
+  </si>
+  <si>
+    <t>Okay, let's do ESA if you want to continue, otherwise we will end the session.</t>
+  </si>
+  <si>
+    <t>Now that you have successfully formed a closer connection with the child, let's show your childhood self some love! Coud you please practice exercises 3, 4 and 5?</t>
+  </si>
+  <si>
+    <t>Can you feel a stronger urge to protect your child?</t>
+  </si>
+  <si>
+    <t>Good job! It is possible you have shown tender compassion, which is a great first stage of compassion, where you have shown sympathy towards the child! Now, let us extend to see what to do with this compassion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May I ask you to practice exercises 1 and 2 please? To feel compassionate towards the child, we have to first be intimate with our child. </t>
+  </si>
+  <si>
+    <t>May I know how you're feeling today?</t>
+  </si>
+  <si>
+    <t>Am I right to say that you're feeling the following emotions?</t>
+  </si>
+  <si>
+    <t>I think you should try &lt;Exercise 13&gt;, it will be very helpful for you in overcoming your negative emotions!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you feel towards your &lt;childhood self&gt;? Do you feel compassionate? </t>
+  </si>
+  <si>
+    <t>That's wonderful! How do you feel about protecting your &lt;childhood self&gt;? Do you find yourself being protective or that it's time your &lt;childhood self&gt; learn to face the hardships in life?</t>
+  </si>
+  <si>
+    <t>Congratulations! You have displayed traits of &lt;tender compassion&gt;, which is the first phase of compassion! It means that you are able to sympathise with the victim, and hope to help them escape from their current predicament and alleviate their suffering.</t>
+  </si>
+  <si>
+    <t>Congratulations! You have displayed traits of &lt;foresighted compassion&gt;! It means that you are thinking about how you can help the victim in the long run. This is different from tender compassion where you only sympathise with the victim in the present/immediate form.</t>
+  </si>
+  <si>
+    <t>To further your compassion, please try this SAT module to develop your &lt;foresighted compassion&gt;! In this exercise, you will learn to develop long-term solutions to help suffering victims and grow from there. Let's go further!</t>
+  </si>
+  <si>
+    <t>It is now time for you to spread your compassion and do meaningful actions in the real world! At the &lt;MAIN NODE&gt;, please proceed to &lt;Awareness, Understanding, Commitments (AUC)&gt; to start making a change in the real world!</t>
+  </si>
+  <si>
+    <t>Before we begin, please take note that this chatbot is used to develop your compassion.</t>
+  </si>
+  <si>
+    <t>There are 2 types of compassion. The first is &lt;Tender compassion&gt;. This is a more commonly seen compassion, where people generate immediate sympathy upon seeing unfortunate situations. Next is &lt;Foresighted compassion&gt;. Unlike the prior compassion, this goes beyond initial sympathetic feelings, with active desire to alleviate the negative situation systematically. Would you like an example?</t>
+  </si>
+  <si>
+    <t>No worries, this is why we are here! We hope to develop your compassion. Let's start.</t>
+  </si>
+  <si>
+    <t>Did you find yourself forming a closer connection with your &lt;childhood self&gt;?</t>
+  </si>
+  <si>
+    <t>That's great! Well done on accomplishing the first goal! For the next step, we will take the relationship with the &lt;childhood self&gt; to the next level. Are you ready?</t>
+  </si>
+  <si>
+    <t>Alright, shall we continue with &lt;ESA&gt;? Otherwise, would you like to end the session here?</t>
+  </si>
+  <si>
+    <t>Now that you have more closely connected with your &lt;childhood self&gt;, it's time to show them some love! We will do this by practicing exercises 3, 4, and 5. These will involve singing, expressing love, pledging to care for and support the &lt;childhood self&gt;.</t>
+  </si>
+  <si>
+    <t>How you do you feel about your &lt;childhood self&gt; now? Do you feel the love and a stronger sense of urge to protect them than before?</t>
+  </si>
+  <si>
+    <t>Well done! You have shown &lt;tender compassion&gt;, the first stage of compassion. This means you are now able to show sympathy towards your &lt;childhood self&gt;. Let's now extend this further and see what we can do with your new found compassion!</t>
+  </si>
+  <si>
+    <t>SAY I'M A GOOD FRIEND (ALICIA)</t>
+  </si>
+  <si>
+    <t>For us to be compassionate towards our &lt;childhood self&gt;, we must first be intimate with them. Let's do this via exercises 1 and 2, where we will recall our early memories.</t>
+  </si>
+  <si>
+    <t>Could you tell me if the emotions I predicted are accurate?</t>
+  </si>
+  <si>
+    <t>Do you feel that in a positive or negative way?</t>
+  </si>
+  <si>
+    <t>We will practice Exercise 13 together now to help with your negative feelings.</t>
+  </si>
+  <si>
+    <t>How do you feel about your childhood self? Do you feel compassionate?</t>
+  </si>
+  <si>
+    <t>That's great to hear. Do you feel more protective to your childhood self, or do you want your childhood self to face the reality and hardships?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congratulations! You tend to have the tender compassion trait. Tender compassion is usually the beginning phase of compassion, where you sympathise with the victim. You often hope to to help the victim's sufferable situation at that moment. </t>
+  </si>
+  <si>
+    <t>Congratulations! You tend to have the foresighted compassion trait. Unlike tender compassion, which may be an instant response, you hope to find a solution to help the victim long-term.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's move on to the next level. Please take the SAT module to progress your foresighted compassion! Foresighted compassion focuses on helping you develop long-term solutions that encourage victims to face and grow from their issues. We can reach further! </t>
+  </si>
+  <si>
+    <t>It is time for you to use your compassion to take meaningful actions in daily life. At the MAIN NODE, direct yourself to Awareness, Understanding, Commitments (AUC) to begin your journey on making an impact in the world!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before we begin, keep in mind that the chatbot is always here for you to practice your compassion skills. </t>
+  </si>
+  <si>
+    <t>Are you aware of the two different types of compassion? Tender compassion is more common, where sympathy is often expressed when people hear of bad news. Beyond that, foresighted compassion focuses on the root of the issue, and helping to solve it to prevent future reoccurance of the issue. Would an example help you to understand this better?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'll be glad to help then! The chatbot is always eager to help you learn and develop compassion skills. Let's start now. </t>
+  </si>
+  <si>
+    <t>Do you feel more deeply connected to your childhood self?</t>
+  </si>
+  <si>
+    <t>That's wonderful progress so far! To progress more with your relationship with your childhood self, we need to take more steps. Are you ready?</t>
+  </si>
+  <si>
+    <t>Okay, do you want to continue with ESA or do you want to end the session for now?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since you feel closer to your childhood self, you should show your childhood self some love! Let's practice exercise 3,4, and 5 together. We will sing, express love, and pledge to care for and support our childhood self. </t>
+  </si>
+  <si>
+    <t>During this session, did you progressively feel more loving and protective to your childhood self? How do you feel now?</t>
+  </si>
+  <si>
+    <t>Congratulations! You tend to express tender compassion. This is a great stepping stone to compassion towards your childhood self. Let's see what we can do with these skills.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi weijie! this is so hard, my english is not good enough for this &gt;&lt;&gt;&lt; but maybe it is good practice... I hope u can get more responses and get good grade for this project, the chatbot idea sounds interesting. actually, if the chatbox can use emoji and sticker it would be funny lol but maybe not so appropriate :o:o :p;P </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intimacy with our childhood self is key to feel compassionate towards ourself. We will now practice exercises 1 and 2 together to refresh your memories and feelings towards your childhood self. </t>
+  </si>
+  <si>
+    <t>Is everything okay with you?</t>
+  </si>
+  <si>
+    <t>Would it be possible for me to know if the predicted emotion is accurate?</t>
+  </si>
+  <si>
+    <t>Can you tell if the emotion is positive or negative?</t>
+  </si>
+  <si>
+    <t>For overcoming negative emotions, let us practice the &lt;Exercise 13&gt; below.</t>
+  </si>
+  <si>
+    <t>Can you relate to your childhood self in a compassionate way?</t>
+  </si>
+  <si>
+    <t>Good job! How do you feel about protecting your &lt;childhood self&gt;, or about growing up and facing hardships with your &lt;childhood self&gt;?</t>
+  </si>
+  <si>
+    <t>Greetings! It is with &lt;tender compassion&gt; that you have shown me. As the first phase of compassion, &lt;tender compassion&gt; involves feeling sympathy for the victim. As a victim of this crime, you feel for the victim, hoping that you can contribute to alleviating their suffering as soon as possible.</t>
+  </si>
+  <si>
+    <t>Well done!&lt; Foresighted compassion&gt; has been shown to your childhood self. In contrast to tender compassion, which is an immediate act of sympathy, you have shown &lt;foresighted compassion&gt;, which helps you consider the victim's long-term needs.</t>
+  </si>
+  <si>
+    <t>The time has come for compassion to reach new heights. We encourage you to take the SAT module later to help you develop &lt;foresighted compassion&gt;! With &lt;foresight compassion&gt;, you can develop long-term solutions to help victims by facing the suffering and growing from it. It's time to move forward!</t>
+  </si>
+  <si>
+    <t>Now is the time to put your compassion energy to good use! Make an impact in the real world by visiting &lt;Awareness, Understanding, Commitments (AUC)&gt; on the &lt;MAIN NODE&gt;!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I would like to emphasize that the purpose of using this chatbot is to develop compassion. </t>
+  </si>
+  <si>
+    <t>It is important to understand that compassion comes in two forms. A more common type of compassion is &lt;tender compassion&gt;, in which people exhibit immediate sympathy towards an unfortunate event. &lt;Foresighted compassion&gt; is another form of compassion, which goes beyond initial sympathetic feelings and seeks to alleviate a situation more sustainably and systematically. Do you need an example?</t>
+  </si>
+  <si>
+    <t>I'm fine with this! The chatbot was created specifically for this purpose! Compassion is something we strive to develop for you! Here we go!</t>
+  </si>
+  <si>
+    <t>Do you feel more connected to your &lt;childhood self&gt;?</t>
+  </si>
+  <si>
+    <t>That's amazing! The first goal has been achieved! Still, we aren't quite there yet. Are you ready to go deeper with the &lt;childhood self&gt;?</t>
+  </si>
+  <si>
+    <t>Is it better to end the session or do &lt;ESA&gt;?</t>
+  </si>
+  <si>
+    <t>It's time to show your &lt;childhood self&gt; some love now that you've formed a closer connection with it! Let's practice exercises 3, 4 and 5 (singing, expressing love, and making a commitment to care and support the &lt;child self&gt;.</t>
+  </si>
+  <si>
+    <t>Now that you are an adult, do you feel more love and a stronger urge to protect your childhood self?</t>
+  </si>
+  <si>
+    <t>Good job! You have shown great&lt;tender compassion&gt;! This is our first stage of compassion, where you have shown sympathy towards the &lt;childhood self&gt;! Now, let us extend to see what to do with this compassion</t>
+  </si>
+  <si>
+    <t>Getting to know our &lt;childhood self&gt; is the first step to feeling compassionate towards it. We will practice exercises 1 and 2 (to recall early memories and become intimate with the &lt;childhood self&gt;.</t>
   </si>
 </sst>
 </file>
@@ -1537,6 +1771,272 @@
         <v>194</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="4">
+        <v>44761.62521813657</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4">
+        <v>44761.741157916666</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4">
+        <v>44762.687569745365</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4">
+        <v>44763.61704642361</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
